--- a/PE448_2020_choice_verification_spreadsheet.xlsx
+++ b/PE448_2020_choice_verification_spreadsheet.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584057F-0D69-4A92-A1CD-559109F5B1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-8475" yWindow="-16320" windowWidth="19440" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="choice_verification" sheetId="6" r:id="rId1"/>
     <sheet name="keywords" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -250,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,7 +353,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -368,28 +372,24 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="4" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
-    <cellStyle name="Explanatory Text 2" xfId="3"/>
+    <cellStyle name="Explanatory Text 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -493,23 +493,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="topics"/>
-      <sheetName val="keywords"/>
-      <sheetName val="ForStudents"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,11 +757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,21 +811,21 @@
         <f>MATCH(A2,keywords!$D$1:$D$50,0)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">MATCH(INDIRECT("C2"),keywords!$A$1:$A$10,0)</f>
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">MATCH(INDIRECT("E2"),keywords!$B$1:$B$17,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H2" s="3">
@@ -852,579 +835,579 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3">
         <f>MATCH(A3,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">MATCH(INDIRECT("C3"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">MATCH(INDIRECT("E3"),keywords!$B$1:$B$17,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="3">
         <f ca="1">MATCH(INDIRECT("G3"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <f>MATCH(A4,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">MATCH(INDIRECT("C4"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">MATCH(INDIRECT("E4"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="H4" s="3">
         <f ca="1">MATCH(INDIRECT("G4"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <f>MATCH(A5,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">MATCH(INDIRECT("C5"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="3">
         <f ca="1">MATCH(INDIRECT("E5"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <f ca="1">MATCH(INDIRECT("G5"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3">
         <f>MATCH(A6,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">MATCH(INDIRECT("C6"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">MATCH(INDIRECT("E6"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H6" s="3">
         <f ca="1">MATCH(INDIRECT("G6"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3">
         <f>MATCH(A7,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">MATCH(INDIRECT("C7"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <f ca="1">MATCH(INDIRECT("E7"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>27</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">MATCH(INDIRECT("G7"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3">
         <f>MATCH(A8,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">MATCH(INDIRECT("C8"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>50</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="3">
         <f ca="1">MATCH(INDIRECT("E8"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="3">
         <f ca="1">MATCH(INDIRECT("G8"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B9" s="3">
         <f>MATCH(A9,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">MATCH(INDIRECT("C9"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="3">
         <f ca="1">MATCH(INDIRECT("E9"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="H9" s="3">
         <f ca="1">MATCH(INDIRECT("G9"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3">
         <f>MATCH(A10,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">MATCH(INDIRECT("C10"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="3">
         <f ca="1">MATCH(INDIRECT("E10"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="str">
         <f ca="1">$H$10</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
       <c r="H10" s="3" t="str">
         <f ca="1">IF(   IF(ISNUMBER(MATCH(1,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(2,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(3,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(4,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(5,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(6,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(7,H2:H9,0)),1,0) + IF(ISNUMBER(MATCH(8,H2:H9,0)),1,0) = 8,"Valid","Invalid")</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3">
         <f>MATCH(A11,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D11" s="3">
         <f ca="1">MATCH(INDIRECT("C11"),keywords!$A$1:$A$10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">MATCH(INDIRECT("E11"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3">
         <f>MATCH(A12,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="str">
         <f ca="1">$D$12</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
       <c r="D12" s="3" t="str">
         <f ca="1">IF(   IF(ISNUMBER(MATCH(1,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(2,D2:D11,0)),1,0)  + IF(ISNUMBER(MATCH(3,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(4,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(5,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(6,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(7,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(8,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(9,D2:D11,0)),1,0) + IF(ISNUMBER(MATCH(10,D2:D11,0)),1,0) = 10,"Valid","Invalid")</f>
-        <v>Invalid</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>50</v>
+        <v>Valid</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">MATCH(INDIRECT("E12"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B13" s="3">
         <f>MATCH(A13,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>50</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">MATCH(INDIRECT("E13"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3">
         <f>MATCH(A14,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">MATCH(INDIRECT("E14"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3">
         <f>MATCH(A15,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F15" s="3">
         <f ca="1">MATCH(INDIRECT("E15"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3">
         <f>MATCH(A16,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>50</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="3">
         <f ca="1">MATCH(INDIRECT("E16"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
         <f>MATCH(A17,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">MATCH(INDIRECT("E17"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B18" s="3">
         <f>MATCH(A18,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">MATCH(INDIRECT("E18"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3">
         <f>MATCH(A19,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="str">
         <f ca="1">$F$19</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
       <c r="F19" s="3" t="str">
         <f ca="1">IF(   IF(ISNUMBER(MATCH(1,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(2,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(3,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(4,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(5,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(6,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(7,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(8,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(9,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(10,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(11,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(12,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(13,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(14,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(15,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(16,F2:F18,0)),1,0) + IF(ISNUMBER(MATCH(17,F2:F18,0)),1,0) = 17,"Valid","Invalid")</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3">
         <f>MATCH(A20,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3">
         <f>MATCH(A21,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3">
         <f>MATCH(A22,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3">
         <f>MATCH(A23,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B24" s="3">
         <f>MATCH(A24,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
         <f>MATCH(A25,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B26" s="3">
         <f>MATCH(A26,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3">
         <f>MATCH(A27,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3">
         <f>MATCH(A28,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3">
         <f>MATCH(A29,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3">
         <f>MATCH(A30,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3">
         <f>MATCH(A31,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3">
         <f>MATCH(A32,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3">
         <f>MATCH(A33,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B34" s="3">
         <f>MATCH(A34,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
         <f>$B$35</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
       <c r="B35" s="3" t="str">
         <f>IF(   IF(ISNUMBER(MATCH(1,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(2,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(3,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(4,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(5,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(6,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(7,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(8,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(9,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(10,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(11,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(12,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(13,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(14,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(15,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(16,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(17,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(18,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(19,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(20,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(21,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(22,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(23,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(24,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(25,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(26,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(27,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(28,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(29,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(30,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(31,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(32,B2:B34,0)),1,0) + IF(ISNUMBER(MATCH(33,B2:B34,0)),1,0) = 33,"Valid","Invalid")</f>
-        <v>Invalid</v>
+        <v>Valid</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="str">
+      <c r="A39" s="10" t="str">
         <f ca="1">IF(AND($B$35="Valid",$D$12="Valid",$F$19="Valid",$H$10="Valid"),
 CONCATENATE(B2,",",B3,",",B4,",",B5,",",B6,",",B7,",",B8,",",B9,",",B10,",",B11,",",B12,",",B13,",",B14,",",B15,",",B16,",",B17,",",B18,",",B19,",",B20,",",B21,",",B22,",",B23,",",B24,",",B25,",",B26,",",B27,",",B28,",",B29,",",B30,",",B31,",",B32,",",B33,",",B34,",",
 D2,",",D3,",",D4,",",D5,",",D6,",",D7,",",D8,",",D9,",",D10,",",D11,",",
 F2,",",F3,",",F4,",",F5,",",F6,",",F7,",",F8,",",F9,",",F10,",",F11,",",F12,",",F13,",",F14,",",F15,",",F16,",",F17,",",F18,",",
 H2,",",H3,",",H4,",",H5,",",H6,",",H7,",",H8,",",H9),
 "Invalid")</f>
-        <v>Invalid</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,1,2,3,4,5,6,7,8,9,10,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,1,2,3,4,5,6,7,8</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="bXabVAJk0fCkDTRNOAsmou1QYrbMwCwtzCb38JiAh10drhKWUKBmXH/KOHU2lBKaftD62UyhbvFICnJS42yHzw==" saltValue="gZbXcyFIjQR/aKkV6BcpxQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -1474,25 +1457,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>keywords!$A$1:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>keywords!$B$1:$B$17</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E18</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>keywords!$C$1:$C$8</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G9</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>keywords!$D$1:$D$33</xm:f>
           </x14:formula1>
@@ -1505,7 +1488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/PE448_2020_choice_verification_spreadsheet.xlsx
+++ b/PE448_2020_choice_verification_spreadsheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6584057F-0D69-4A92-A1CD-559109F5B1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8B0D1A-E7A1-43A8-BCCC-15A07D9EE805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8475" yWindow="-16320" windowWidth="19440" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,11 +805,11 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3">
         <f>MATCH(A2,keywords!$D$1:$D$50,0)</f>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>3</v>
@@ -819,251 +819,251 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3">
         <f ca="1">MATCH(INDIRECT("E2"),keywords!$B$1:$B$17,0)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2" s="3">
         <f ca="1">MATCH(INDIRECT("G2"),keywords!$C$1:$C$8,0)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <f>MATCH(A3,keywords!$D$1:$D$50,0)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
         <f ca="1">MATCH(INDIRECT("C3"),keywords!$A$1:$A$10,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3">
         <f ca="1">MATCH(INDIRECT("E3"),keywords!$B$1:$B$17,0)</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3">
         <f ca="1">MATCH(INDIRECT("G3"),keywords!$C$1:$C$8,0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B4" s="3">
         <f>MATCH(A4,keywords!$D$1:$D$50,0)</f>
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">MATCH(INDIRECT("C4"),keywords!$A$1:$A$10,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <f ca="1">MATCH(INDIRECT("E4"),keywords!$B$1:$B$17,0)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3">
         <f ca="1">MATCH(INDIRECT("G4"),keywords!$C$1:$C$8,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3">
         <f>MATCH(A5,keywords!$D$1:$D$50,0)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3">
         <f ca="1">MATCH(INDIRECT("C5"),keywords!$A$1:$A$10,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
         <f ca="1">MATCH(INDIRECT("E5"),keywords!$B$1:$B$17,0)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3">
         <f ca="1">MATCH(INDIRECT("G5"),keywords!$C$1:$C$8,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3">
         <f>MATCH(A6,keywords!$D$1:$D$50,0)</f>
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">MATCH(INDIRECT("C6"),keywords!$A$1:$A$10,0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F6" s="3">
         <f ca="1">MATCH(INDIRECT("E6"),keywords!$B$1:$B$17,0)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H6" s="3">
         <f ca="1">MATCH(INDIRECT("G6"),keywords!$C$1:$C$8,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3">
         <f>MATCH(A7,keywords!$D$1:$D$50,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">MATCH(INDIRECT("C7"),keywords!$A$1:$A$10,0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <f ca="1">MATCH(INDIRECT("E7"),keywords!$B$1:$B$17,0)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">MATCH(INDIRECT("G7"),keywords!$C$1:$C$8,0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <f>MATCH(A8,keywords!$D$1:$D$50,0)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3">
         <f ca="1">MATCH(INDIRECT("C8"),keywords!$A$1:$A$10,0)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3">
         <f ca="1">MATCH(INDIRECT("E8"),keywords!$B$1:$B$17,0)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8" s="3">
         <f ca="1">MATCH(INDIRECT("G8"),keywords!$C$1:$C$8,0)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3">
         <f>MATCH(A9,keywords!$D$1:$D$50,0)</f>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3">
         <f ca="1">MATCH(INDIRECT("C9"),keywords!$A$1:$A$10,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3">
         <f ca="1">MATCH(INDIRECT("E9"),keywords!$B$1:$B$17,0)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3">
         <f ca="1">MATCH(INDIRECT("G9"),keywords!$C$1:$C$8,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3">
         <f>MATCH(A10,keywords!$D$1:$D$50,0)</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D10" s="3">
         <f ca="1">MATCH(INDIRECT("C10"),keywords!$A$1:$A$10,0)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
         <f ca="1">MATCH(INDIRECT("E10"),keywords!$B$1:$B$17,0)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="4" t="str">
         <f ca="1">$H$10</f>
@@ -1076,11 +1076,11 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <f>MATCH(A11,keywords!$D$1:$D$50,0)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>11</v>
@@ -1090,20 +1090,20 @@
         <v>10</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3">
         <f ca="1">MATCH(INDIRECT("E11"),keywords!$B$1:$B$17,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="3">
         <f>MATCH(A12,keywords!$D$1:$D$50,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="str">
         <f ca="1">$D$12</f>
@@ -1114,116 +1114,116 @@
         <v>Valid</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3">
         <f ca="1">MATCH(INDIRECT("E12"),keywords!$B$1:$B$17,0)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B13" s="3">
         <f>MATCH(A13,keywords!$D$1:$D$50,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F13" s="3">
         <f ca="1">MATCH(INDIRECT("E13"),keywords!$B$1:$B$17,0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B14" s="3">
         <f>MATCH(A14,keywords!$D$1:$D$50,0)</f>
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3">
         <f ca="1">MATCH(INDIRECT("E14"),keywords!$B$1:$B$17,0)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B15" s="3">
         <f>MATCH(A15,keywords!$D$1:$D$50,0)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3">
         <f ca="1">MATCH(INDIRECT("E15"),keywords!$B$1:$B$17,0)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B16" s="3">
         <f>MATCH(A16,keywords!$D$1:$D$50,0)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3">
         <f ca="1">MATCH(INDIRECT("E16"),keywords!$B$1:$B$17,0)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="3">
         <f>MATCH(A17,keywords!$D$1:$D$50,0)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">MATCH(INDIRECT("E17"),keywords!$B$1:$B$17,0)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B18" s="3">
         <f>MATCH(A18,keywords!$D$1:$D$50,0)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3">
         <f ca="1">MATCH(INDIRECT("E18"),keywords!$B$1:$B$17,0)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3">
         <f>MATCH(A19,keywords!$D$1:$D$50,0)</f>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E19" s="4" t="str">
         <f ca="1">$F$19</f>
@@ -1236,119 +1236,119 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3">
         <f>MATCH(A20,keywords!$D$1:$D$50,0)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3">
         <f>MATCH(A21,keywords!$D$1:$D$50,0)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B22" s="3">
         <f>MATCH(A22,keywords!$D$1:$D$50,0)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B23" s="3">
         <f>MATCH(A23,keywords!$D$1:$D$50,0)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
         <f>MATCH(A24,keywords!$D$1:$D$50,0)</f>
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B25" s="3">
-        <f>MATCH(A25,keywords!$D$1:$D$50,0)</f>
-        <v>24</v>
+        <f>MATCH(A26,keywords!$D$1:$D$50,0)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B26" s="3">
-        <f>MATCH(A26,keywords!$D$1:$D$50,0)</f>
-        <v>25</v>
+        <f>MATCH(A27,keywords!$D$1:$D$50,0)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3">
-        <f>MATCH(A27,keywords!$D$1:$D$50,0)</f>
-        <v>26</v>
+        <f>MATCH(A28,keywords!$D$1:$D$50,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3">
-        <f>MATCH(A28,keywords!$D$1:$D$50,0)</f>
-        <v>27</v>
+        <f>MATCH(A29,keywords!$D$1:$D$50,0)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
-        <f>MATCH(A29,keywords!$D$1:$D$50,0)</f>
-        <v>28</v>
+        <f>MATCH(A30,keywords!$D$1:$D$50,0)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3">
-        <f>MATCH(A30,keywords!$D$1:$D$50,0)</f>
-        <v>29</v>
+        <f>MATCH(A31,keywords!$D$1:$D$50,0)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B31" s="3">
-        <f>MATCH(A31,keywords!$D$1:$D$50,0)</f>
-        <v>30</v>
+        <f>MATCH(A32,keywords!$D$1:$D$50,0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3">
-        <f>MATCH(A32,keywords!$D$1:$D$50,0)</f>
-        <v>31</v>
+        <f>MATCH(A33,keywords!$D$1:$D$50,0)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,17 +1356,17 @@
         <v>44</v>
       </c>
       <c r="B33" s="3">
-        <f>MATCH(A33,keywords!$D$1:$D$50,0)</f>
-        <v>32</v>
+        <f>MATCH(A34,keywords!$D$1:$D$50,0)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3">
-        <f>MATCH(A34,keywords!$D$1:$D$50,0)</f>
-        <v>33</v>
+        <f>MATCH(A25,keywords!$D$1:$D$50,0)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1399,7 +1399,7 @@
 F2,",",F3,",",F4,",",F5,",",F6,",",F7,",",F8,",",F9,",",F10,",",F11,",",F12,",",F13,",",F14,",",F15,",",F16,",",F17,",",F18,",",
 H2,",",H3,",",H4,",",H5,",",H6,",",H7,",",H8,",",H9),
 "Invalid")</f>
-        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,1,2,3,4,5,6,7,8,9,10,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,1,2,3,4,5,6,7,8</v>
+        <v>22,10,26,17,28,5,3,29,8,4,12,25,31,19,23,18,15,27,1,14,33,24,11,7,21,9,6,16,2,13,32,30,20,1,3,4,5,7,2,9,6,8,10,9,13,16,8,1,5,14,3,7,15,17,2,10,11,4,12,6,7,1,8,3,2,4,5,6</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -1457,29 +1457,29 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>keywords!$D$1:$D$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>A25 A26:A34 A2:A24</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>keywords!$A$1:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C11</xm:sqref>
+          <xm:sqref>C8 C9:C11 C2:C7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>keywords!$B$1:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E18</xm:sqref>
+          <xm:sqref>E4 E5:E18 E2:E3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>keywords!$C$1:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>keywords!$D$1:$D$33</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A34</xm:sqref>
+          <xm:sqref>G2:G7 G8:G9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1491,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
